--- a/srv/backendv2/tests/fixtures/test_birds_data.xlsx
+++ b/srv/backendv2/tests/fixtures/test_birds_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PM34NO\PycharmProjects\bird-site\srv\backendv2\tests\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700248D5-FB77-49B8-B6D6-40D061459697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3B49E7-6350-4432-AB24-2DA9297A7867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="2" r:id="rId1"/>
@@ -18,19 +18,20 @@
     <sheet name="BirdOrderTranslation" sheetId="4" r:id="rId3"/>
     <sheet name="BirdSuborder" sheetId="5" r:id="rId4"/>
     <sheet name="BirdSuborderTranslation" sheetId="1" r:id="rId5"/>
-    <sheet name="BirdFamily" sheetId="6" r:id="rId6"/>
-    <sheet name="BirdFamilyTranslation" sheetId="7" r:id="rId7"/>
-    <sheet name="Bird" sheetId="8" r:id="rId8"/>
-    <sheet name="BirdNameTranslation" sheetId="9" r:id="rId9"/>
-    <sheet name="BirdSoundsURL" sheetId="11" r:id="rId10"/>
-    <sheet name="BirdTag" sheetId="10" r:id="rId11"/>
+    <sheet name="BirdTextField" sheetId="12" r:id="rId6"/>
+    <sheet name="BirdFamily" sheetId="6" r:id="rId7"/>
+    <sheet name="BirdFamilyTranslation" sheetId="7" r:id="rId8"/>
+    <sheet name="Bird" sheetId="8" r:id="rId9"/>
+    <sheet name="BirdNameTranslation" sheetId="9" r:id="rId10"/>
+    <sheet name="BirdSoundsURL" sheetId="11" r:id="rId11"/>
+    <sheet name="BirdTag" sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="77">
   <si>
     <t>suborder</t>
   </si>
@@ -255,6 +256,12 @@
   </si>
   <si>
     <t>TEMP</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Test description</t>
   </si>
 </sst>
 </file>
@@ -1132,6 +1139,213 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C69341FB-FF91-4B92-A74A-2990BB9026BE}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.54296875" customWidth="1"/>
+    <col min="3" max="3" width="21.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148F78D1-3F80-41D4-B513-75EF1C62F7BB}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -1249,7 +1463,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D783D88-BC5B-4F2D-A74B-0A62FDF1BAB4}">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -1496,6 +1710,43 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FB1A1B-23D7-4547-8D26-A0AC19E4AB49}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD1B5DE-BE21-4027-84E7-87D3326DFDFF}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -1566,7 +1817,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FA4B27C-1F09-46BB-A576-945EB458FE0D}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -1727,11 +1978,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{746864B2-BB9D-458B-9EC8-1619127C2AF3}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -1927,213 +2178,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C69341FB-FF91-4B92-A74A-2990BB9026BE}">
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="26.54296875" customWidth="1"/>
-    <col min="3" max="3" width="21.36328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{587b6ea1-3db9-4fe1-a9d7-85d4c64ce5cc}" enabled="0" method="" siteId="{587b6ea1-3db9-4fe1-a9d7-85d4c64ce5cc}" removed="1"/>

--- a/srv/backendv2/tests/fixtures/test_birds_data.xlsx
+++ b/srv/backendv2/tests/fixtures/test_birds_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PM34NO\PycharmProjects\bird-site\srv\backendv2\tests\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3B49E7-6350-4432-AB24-2DA9297A7867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4D77CC-70F7-4A4F-B046-8BE17A9B48BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="2" r:id="rId1"/>
@@ -25,13 +25,16 @@
     <sheet name="BirdNameTranslation" sheetId="9" r:id="rId10"/>
     <sheet name="BirdSoundsURL" sheetId="11" r:id="rId11"/>
     <sheet name="BirdTag" sheetId="10" r:id="rId12"/>
+    <sheet name="User" sheetId="13" r:id="rId13"/>
+    <sheet name="Role" sheetId="14" r:id="rId14"/>
+    <sheet name="UserRole" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="89">
   <si>
     <t>suborder</t>
   </si>
@@ -262,13 +265,49 @@
   </si>
   <si>
     <t>Test description</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>hashed_password</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>test@test.com</t>
+  </si>
+  <si>
+    <t>testpassword</t>
+  </si>
+  <si>
+    <t>role_name</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>role_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,6 +449,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -708,7 +766,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -751,12 +809,18 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -790,6 +854,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1116,19 +1181,19 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1146,13 +1211,13 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="26.54296875" customWidth="1"/>
     <col min="3" max="3" width="21.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1163,7 +1228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1174,7 +1239,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1185,7 +1250,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1196,7 +1261,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1207,7 +1272,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1218,7 +1283,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1229,7 +1294,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -1240,7 +1305,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1251,7 +1316,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -1262,7 +1327,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -1273,7 +1338,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -1284,7 +1349,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -1295,7 +1360,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -1306,7 +1371,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -1317,7 +1382,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -1328,7 +1393,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -1353,13 +1418,13 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="18.08984375" customWidth="1"/>
     <col min="3" max="3" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1370,7 +1435,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1381,7 +1446,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1392,7 +1457,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -1403,7 +1468,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -1414,7 +1479,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1425,7 +1490,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -1436,7 +1501,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -1447,7 +1512,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>57</v>
       </c>
@@ -1471,9 +1536,9 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1481,7 +1546,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1489,7 +1554,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1497,7 +1562,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -1505,7 +1570,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -1513,7 +1578,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1521,7 +1586,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -1529,7 +1594,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -1537,12 +1602,139 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>57</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D755B6D-3A58-475D-A043-1D27E365657E}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="16384" width="8.7265625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{CBC95AD0-5C28-4175-90CF-309D09B5D91E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2045330-21FE-4F90-8C04-6CA92040744B}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9C3F73-351F-4B61-938A-C5A81486FF87}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1558,14 +1750,14 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1584,12 +1776,12 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="15.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1600,7 +1792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1611,7 +1803,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1635,12 +1827,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1648,7 +1840,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1669,9 +1861,9 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1682,7 +1874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1693,7 +1885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1713,13 +1905,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FB1A1B-23D7-4547-8D26-A0AC19E4AB49}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1730,7 +1922,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1754,9 +1946,9 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1764,7 +1956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1772,7 +1964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -1780,7 +1972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -1788,7 +1980,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -1796,7 +1988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -1804,7 +1996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -1825,12 +2017,12 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="3" max="3" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1841,7 +2033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1852,7 +2044,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1863,7 +2055,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -1874,7 +2066,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -1885,7 +2077,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -1896,7 +2088,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -1907,7 +2099,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1918,7 +2110,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -1929,7 +2121,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>53</v>
       </c>
@@ -1940,7 +2132,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>53</v>
       </c>
@@ -1951,7 +2143,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -1962,7 +2154,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -1986,13 +2178,13 @@
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="6" max="6" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -2012,7 +2204,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -2032,7 +2224,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -2052,7 +2244,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -2072,7 +2264,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -2092,7 +2284,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -2112,7 +2304,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -2132,7 +2324,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -2152,7 +2344,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>57</v>
       </c>
